--- a/myData/RAN 7-27-18 BETA GAL RAN11, RAN12.xlsx
+++ b/myData/RAN 7-27-18 BETA GAL RAN11, RAN12.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\royam\Documents\RpoSResearch\betaGal-analysis\myData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f1cc2362bc617e12/Documents/betaGal-analysis/myData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6590CEC5-7ED5-4C88-9DA6-AB480E9D5C03}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="22992" windowHeight="13860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -267,9 +266,6 @@
     <t>RAN</t>
   </si>
   <si>
-    <t>2018-07-24</t>
-  </si>
-  <si>
     <t>blank</t>
   </si>
   <si>
@@ -301,12 +297,15 @@
   </si>
   <si>
     <t>reactionTime</t>
+  </si>
+  <si>
+    <t>2018-07-27</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -826,16 +825,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView topLeftCell="A59" workbookViewId="0">
       <selection activeCell="A51" sqref="A51:I79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -874,7 +873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -908,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -942,7 +941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -976,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1050,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1119,7 +1118,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1145,7 @@
         <v>-2.25729350857219E+16</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
@@ -1163,7 +1162,7 @@
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12" t="s">
@@ -1180,7 +1179,7 @@
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -1197,7 +1196,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="12" t="s">
         <v>21</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>4.2640000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
@@ -1241,7 +1240,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
@@ -1258,7 +1257,7 @@
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
@@ -1275,7 +1274,7 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
@@ -1302,7 +1301,7 @@
         <v>4.6500000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
@@ -1319,7 +1318,7 @@
       <c r="H21" s="12"/>
       <c r="I21" s="12"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
@@ -1336,7 +1335,7 @@
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
@@ -1353,7 +1352,7 @@
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
@@ -1380,7 +1379,7 @@
         <v>1.296</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
@@ -1397,7 +1396,7 @@
       <c r="H25" s="12"/>
       <c r="I25" s="12"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12" t="s">
@@ -1414,7 +1413,7 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
@@ -1431,7 +1430,7 @@
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
@@ -1458,7 +1457,7 @@
         <v>3.4460000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
@@ -1475,7 +1474,7 @@
       <c r="H29" s="12"/>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12" t="s">
@@ -1492,7 +1491,7 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12" t="s">
@@ -1509,7 +1508,7 @@
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="12" t="s">
         <v>41</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>12.382</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12" t="s">
@@ -1553,7 +1552,7 @@
       <c r="H33" s="12"/>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12" t="s">
@@ -1570,7 +1569,7 @@
       <c r="H34" s="12"/>
       <c r="I34" s="12"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12" t="s">
@@ -1587,7 +1586,7 @@
       <c r="H35" s="12"/>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="12" t="s">
         <v>46</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>2.665</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12" t="s">
@@ -1631,7 +1630,7 @@
       <c r="H37" s="12"/>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12" t="s">
@@ -1648,7 +1647,7 @@
       <c r="H38" s="12"/>
       <c r="I38" s="12"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12" t="s">
@@ -1665,7 +1664,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="2">
         <v>1</v>
@@ -1704,7 +1703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
@@ -1744,7 +1743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +1763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
@@ -1784,7 +1783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>5</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>6</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>7</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>9</v>
       </c>
@@ -1949,7 +1948,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>16</v>
       </c>
@@ -1976,7 +1975,7 @@
         <v>-8515813493585680</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12" t="s">
@@ -1993,7 +1992,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12" t="s">
@@ -2010,7 +2009,7 @@
       <c r="H54" s="12"/>
       <c r="I54" s="12"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12" t="s">
@@ -2027,7 +2026,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>21</v>
       </c>
@@ -2054,7 +2053,7 @@
         <v>4.4660000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12" t="s">
@@ -2071,7 +2070,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12" t="s">
@@ -2088,7 +2087,7 @@
       <c r="H58" s="12"/>
       <c r="I58" s="12"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12" t="s">
@@ -2105,7 +2104,7 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A60" s="12" t="s">
         <v>26</v>
       </c>
@@ -2132,7 +2131,7 @@
         <v>4.71</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12" t="s">
@@ -2149,7 +2148,7 @@
       <c r="H61" s="12"/>
       <c r="I61" s="12"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12" t="s">
@@ -2166,7 +2165,7 @@
       <c r="H62" s="12"/>
       <c r="I62" s="12"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12" t="s">
@@ -2183,7 +2182,7 @@
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>31</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>3.4449999999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12" t="s">
@@ -2227,7 +2226,7 @@
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12" t="s">
@@ -2244,7 +2243,7 @@
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12" t="s">
@@ -2261,7 +2260,7 @@
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" s="12" t="s">
         <v>36</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>6.5019999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" s="12"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12" t="s">
@@ -2305,7 +2304,7 @@
       <c r="H69" s="12"/>
       <c r="I69" s="12"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" s="12"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12" t="s">
@@ -2322,7 +2321,7 @@
       <c r="H70" s="12"/>
       <c r="I70" s="12"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" s="12"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12" t="s">
@@ -2339,7 +2338,7 @@
       <c r="H71" s="12"/>
       <c r="I71" s="12"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" s="12" t="s">
         <v>41</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v>3.0659999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" s="12"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12" t="s">
@@ -2383,7 +2382,7 @@
       <c r="H73" s="12"/>
       <c r="I73" s="12"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" s="12"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12" t="s">
@@ -2400,7 +2399,7 @@
       <c r="H74" s="12"/>
       <c r="I74" s="12"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" s="12"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12" t="s">
@@ -2417,7 +2416,7 @@
       <c r="H75" s="12"/>
       <c r="I75" s="12"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>46</v>
       </c>
@@ -2444,7 +2443,7 @@
         <v>2.6019999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" s="12"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12" t="s">
@@ -2461,7 +2460,7 @@
       <c r="H77" s="12"/>
       <c r="I77" s="12"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" s="12"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12" t="s">
@@ -2478,7 +2477,7 @@
       <c r="H78" s="12"/>
       <c r="I78" s="12"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" s="12"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12" t="s">
@@ -2502,16 +2501,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="11.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2540,28 +2542,28 @@
         <v>15</v>
       </c>
       <c r="J1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
@@ -2591,25 +2593,25 @@
         <v>80</v>
       </c>
       <c r="K2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="N2" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O2" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
@@ -2629,25 +2631,25 @@
         <v>80</v>
       </c>
       <c r="K3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" t="s">
         <v>81</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="N3" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -2667,25 +2669,25 @@
         <v>80</v>
       </c>
       <c r="K4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
         <v>81</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="N4" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O4" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -2705,25 +2707,25 @@
         <v>80</v>
       </c>
       <c r="K5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" t="s">
         <v>81</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="N5" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P5" s="17" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2753,10 +2755,10 @@
         <v>80</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2771,7 +2773,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -2791,10 +2793,10 @@
         <v>80</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -2809,7 +2811,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
@@ -2829,10 +2831,10 @@
         <v>80</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2847,7 +2849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -2867,10 +2869,10 @@
         <v>80</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2885,7 +2887,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
@@ -2915,10 +2917,10 @@
         <v>80</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10">
         <v>26</v>
@@ -2933,7 +2935,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
@@ -2953,10 +2955,10 @@
         <v>80</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11">
         <v>26</v>
@@ -2971,7 +2973,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
@@ -2991,10 +2993,10 @@
         <v>80</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12">
         <v>26</v>
@@ -3009,7 +3011,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
@@ -3029,10 +3031,10 @@
         <v>80</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13">
         <v>26</v>
@@ -3047,7 +3049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -3077,10 +3079,10 @@
         <v>80</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14">
         <v>89</v>
@@ -3095,7 +3097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -3115,10 +3117,10 @@
         <v>80</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15">
         <v>89</v>
@@ -3133,7 +3135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
@@ -3153,10 +3155,10 @@
         <v>80</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16">
         <v>89</v>
@@ -3171,7 +3173,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
@@ -3191,10 +3193,10 @@
         <v>80</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17">
         <v>89</v>
@@ -3209,7 +3211,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
@@ -3239,10 +3241,10 @@
         <v>80</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3257,7 +3259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
@@ -3277,10 +3279,10 @@
         <v>80</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -3295,7 +3297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
@@ -3315,10 +3317,10 @@
         <v>80</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -3333,7 +3335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
@@ -3353,10 +3355,10 @@
         <v>80</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -3371,7 +3373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>41</v>
       </c>
@@ -3401,10 +3403,10 @@
         <v>80</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M22">
         <v>26</v>
@@ -3419,7 +3421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
@@ -3439,10 +3441,10 @@
         <v>80</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M23">
         <v>26</v>
@@ -3457,7 +3459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
@@ -3477,10 +3479,10 @@
         <v>80</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M24">
         <v>26</v>
@@ -3495,7 +3497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
@@ -3515,10 +3517,10 @@
         <v>80</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M25">
         <v>26</v>
@@ -3533,7 +3535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>46</v>
       </c>
@@ -3563,10 +3565,10 @@
         <v>80</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26">
         <v>89</v>
@@ -3581,7 +3583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
@@ -3601,10 +3603,10 @@
         <v>80</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M27">
         <v>89</v>
@@ -3619,7 +3621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
@@ -3639,10 +3641,10 @@
         <v>80</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M28">
         <v>89</v>
@@ -3657,7 +3659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
@@ -3677,10 +3679,10 @@
         <v>80</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M29">
         <v>89</v>
@@ -3701,16 +3703,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="11.36328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -3739,22 +3744,22 @@
         <v>15</v>
       </c>
       <c r="J1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
@@ -3784,19 +3789,19 @@
         <v>80</v>
       </c>
       <c r="K2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" t="s">
         <v>81</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M2" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="N2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
@@ -3816,19 +3821,19 @@
         <v>80</v>
       </c>
       <c r="K3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" t="s">
         <v>81</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="N3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12" t="s">
@@ -3848,19 +3853,19 @@
         <v>80</v>
       </c>
       <c r="K4" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
         <v>81</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="N4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12" t="s">
@@ -3880,19 +3885,19 @@
         <v>80</v>
       </c>
       <c r="K5" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" t="s">
         <v>81</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M5" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="N5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
@@ -3922,10 +3927,10 @@
         <v>80</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -3934,7 +3939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12" t="s">
@@ -3954,10 +3959,10 @@
         <v>80</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -3966,7 +3971,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12" t="s">
@@ -3986,10 +3991,10 @@
         <v>80</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -3998,7 +4003,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12" t="s">
@@ -4018,10 +4023,10 @@
         <v>80</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -4030,7 +4035,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
         <v>26</v>
       </c>
@@ -4060,10 +4065,10 @@
         <v>80</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M10">
         <v>26</v>
@@ -4072,7 +4077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12" t="s">
@@ -4092,10 +4097,10 @@
         <v>80</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M11">
         <v>26</v>
@@ -4104,7 +4109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12" t="s">
@@ -4124,10 +4129,10 @@
         <v>80</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12">
         <v>26</v>
@@ -4136,7 +4141,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12" t="s">
@@ -4156,10 +4161,10 @@
         <v>80</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M13">
         <v>26</v>
@@ -4168,7 +4173,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>31</v>
       </c>
@@ -4198,10 +4203,10 @@
         <v>80</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14">
         <v>89</v>
@@ -4210,7 +4215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
@@ -4230,10 +4235,10 @@
         <v>80</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M15">
         <v>89</v>
@@ -4242,7 +4247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12" t="s">
@@ -4262,10 +4267,10 @@
         <v>80</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M16">
         <v>89</v>
@@ -4274,7 +4279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
@@ -4294,10 +4299,10 @@
         <v>80</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M17">
         <v>89</v>
@@ -4306,7 +4311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="12" t="s">
         <v>36</v>
       </c>
@@ -4336,10 +4341,10 @@
         <v>80</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -4348,7 +4353,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
@@ -4368,10 +4373,10 @@
         <v>80</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -4380,7 +4385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12" t="s">
@@ -4400,10 +4405,10 @@
         <v>80</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -4412,7 +4417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
@@ -4432,10 +4437,10 @@
         <v>80</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -4444,7 +4449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>41</v>
       </c>
@@ -4474,10 +4479,10 @@
         <v>80</v>
       </c>
       <c r="K22" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M22">
         <v>26</v>
@@ -4486,7 +4491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12" t="s">
@@ -4506,10 +4511,10 @@
         <v>80</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M23">
         <v>26</v>
@@ -4518,7 +4523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
@@ -4538,10 +4543,10 @@
         <v>80</v>
       </c>
       <c r="K24" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M24">
         <v>26</v>
@@ -4550,7 +4555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
@@ -4570,10 +4575,10 @@
         <v>80</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M25">
         <v>26</v>
@@ -4582,7 +4587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="12" t="s">
         <v>46</v>
       </c>
@@ -4612,10 +4617,10 @@
         <v>80</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M26">
         <v>89</v>
@@ -4624,7 +4629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12" t="s">
@@ -4644,10 +4649,10 @@
         <v>80</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M27">
         <v>89</v>
@@ -4656,7 +4661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12" t="s">
@@ -4676,10 +4681,10 @@
         <v>80</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M28">
         <v>89</v>
@@ -4688,7 +4693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12" t="s">
@@ -4708,10 +4713,10 @@
         <v>80</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="L29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M29">
         <v>89</v>
